--- a/econ_indicators_BLS.xlsx
+++ b/econ_indicators_BLS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Month</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>GDP.Growth.Rate..Qtly.</t>
-  </si>
-  <si>
-    <t>HPI.Not.Seasonal</t>
-  </si>
-  <si>
-    <t>HPI.Seasonal</t>
   </si>
   <si>
     <t>ConsumerConfidIndex</t>
@@ -236,7 +230,10 @@
     <t>CCI.6m</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>HPI.Not.Seasol</t>
+  </si>
+  <si>
+    <t>HPI.Seasol</t>
   </si>
 </sst>
 </file>
@@ -1049,11 +1046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR181"/>
+  <dimension ref="A1:BR167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165:XFD165"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M175" sqref="M175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,166 +1111,166 @@
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
@@ -35881,12 +35878,8 @@
       <c r="P165" s="1">
         <v>2</v>
       </c>
-      <c r="Q165" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R165" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
       <c r="S165" s="1">
         <v>100.5753</v>
       </c>
@@ -36025,15 +36018,9 @@
       <c r="BL165" s="1">
         <v>0.171096681096681</v>
       </c>
-      <c r="BM165" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN165" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO165" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="BM165" s="1"/>
+      <c r="BN165" s="1"/>
+      <c r="BO165" s="1"/>
       <c r="BP165" s="1">
         <v>100.7411</v>
       </c>
@@ -36095,168 +36082,62 @@
       <c r="P166" s="1">
         <v>2</v>
       </c>
-      <c r="Q166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W166" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
       <c r="X166" s="1">
         <v>0.14505424199132599</v>
       </c>
-      <c r="Y166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ166" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR166" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="Y166" s="1"/>
+      <c r="Z166" s="1"/>
+      <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
+      <c r="AC166" s="1"/>
+      <c r="AD166" s="1"/>
+      <c r="AE166" s="1"/>
+      <c r="AF166" s="1"/>
+      <c r="AG166" s="1"/>
+      <c r="AH166" s="1"/>
+      <c r="AI166" s="1"/>
+      <c r="AJ166" s="1"/>
+      <c r="AK166" s="1"/>
+      <c r="AL166" s="1"/>
+      <c r="AM166" s="1"/>
+      <c r="AN166" s="1"/>
+      <c r="AO166" s="1"/>
+      <c r="AP166" s="1"/>
+      <c r="AQ166" s="1"/>
+      <c r="AR166" s="1"/>
+      <c r="AS166" s="1"/>
+      <c r="AT166" s="1"/>
+      <c r="AU166" s="1"/>
+      <c r="AV166" s="1"/>
+      <c r="AW166" s="1"/>
+      <c r="AX166" s="1"/>
+      <c r="AY166" s="1"/>
+      <c r="AZ166" s="1"/>
+      <c r="BA166" s="1"/>
+      <c r="BB166" s="1"/>
+      <c r="BC166" s="1"/>
+      <c r="BD166" s="1"/>
+      <c r="BE166" s="1"/>
+      <c r="BF166" s="1"/>
+      <c r="BG166" s="1"/>
+      <c r="BH166" s="1"/>
+      <c r="BI166" s="1"/>
+      <c r="BJ166" s="1"/>
+      <c r="BK166" s="1"/>
+      <c r="BL166" s="1"/>
+      <c r="BM166" s="1"/>
+      <c r="BN166" s="1"/>
+      <c r="BO166" s="1"/>
+      <c r="BP166" s="1"/>
+      <c r="BQ166" s="1"/>
+      <c r="BR166" s="1"/>
     </row>
     <row r="167" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -36294,3151 +36175,71 @@
       <c r="K167" s="1">
         <v>341</v>
       </c>
-      <c r="L167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N167" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
       <c r="O167" s="1">
         <v>0.16</v>
       </c>
       <c r="P167" s="1">
         <v>1.9</v>
       </c>
-      <c r="Q167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W167" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
       <c r="X167" s="1">
         <v>0.14119657738674399</v>
       </c>
-      <c r="Y167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ167" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR167" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="168" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>43770</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P168" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="Q168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X168" s="1">
-        <v>0.157683065953451</v>
-      </c>
-      <c r="Y168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ168" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR168" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="169" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P169" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="Q169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X169" s="1">
-        <v>0.21345904339412999</v>
-      </c>
-      <c r="Y169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR169" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="170" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P170" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="Q170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X170" s="1">
-        <v>0.236219440200611</v>
-      </c>
-      <c r="Y170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR170" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="171" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P171" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="Q171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X171" s="1">
-        <v>0.24618795926586801</v>
-      </c>
-      <c r="Y171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR171" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="172" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P172" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="Q172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X172" s="1">
-        <v>0.270795626919762</v>
-      </c>
-      <c r="Y172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR172" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="173" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P173" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="Q173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X173" s="1">
-        <v>0.27489300364291003</v>
-      </c>
-      <c r="Y173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR173" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="174" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P174" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="Q174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X174" s="1">
-        <v>0.29622921375102901</v>
-      </c>
-      <c r="Y174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR174" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="175" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>43983</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P175" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="Q175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X175" s="1">
-        <v>0.32879583287300901</v>
-      </c>
-      <c r="Y175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ175" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR175" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="176" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P176" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="Q176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X176" s="1">
-        <v>0.31478756405836</v>
-      </c>
-      <c r="Y176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ176" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR176" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="177" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P177" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="Q177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X177" s="1">
-        <v>0.37927065479670002</v>
-      </c>
-      <c r="Y177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ177" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR177" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="178" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P178" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="Q178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR178" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="179" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P179" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="Q179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ179" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR179" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="180" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P180" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="Q180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR180" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="181" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P181" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="Q181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ181" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR181" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="Y167" s="1"/>
+      <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
+      <c r="AD167" s="1"/>
+      <c r="AE167" s="1"/>
+      <c r="AF167" s="1"/>
+      <c r="AG167" s="1"/>
+      <c r="AH167" s="1"/>
+      <c r="AI167" s="1"/>
+      <c r="AJ167" s="1"/>
+      <c r="AK167" s="1"/>
+      <c r="AL167" s="1"/>
+      <c r="AM167" s="1"/>
+      <c r="AN167" s="1"/>
+      <c r="AO167" s="1"/>
+      <c r="AP167" s="1"/>
+      <c r="AQ167" s="1"/>
+      <c r="AR167" s="1"/>
+      <c r="AS167" s="1"/>
+      <c r="AT167" s="1"/>
+      <c r="AU167" s="1"/>
+      <c r="AV167" s="1"/>
+      <c r="AW167" s="1"/>
+      <c r="AX167" s="1"/>
+      <c r="AY167" s="1"/>
+      <c r="AZ167" s="1"/>
+      <c r="BA167" s="1"/>
+      <c r="BB167" s="1"/>
+      <c r="BC167" s="1"/>
+      <c r="BD167" s="1"/>
+      <c r="BE167" s="1"/>
+      <c r="BF167" s="1"/>
+      <c r="BG167" s="1"/>
+      <c r="BH167" s="1"/>
+      <c r="BI167" s="1"/>
+      <c r="BJ167" s="1"/>
+      <c r="BK167" s="1"/>
+      <c r="BL167" s="1"/>
+      <c r="BM167" s="1"/>
+      <c r="BN167" s="1"/>
+      <c r="BO167" s="1"/>
+      <c r="BP167" s="1"/>
+      <c r="BQ167" s="1"/>
+      <c r="BR167" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
